--- a/downloaded_files/EECS102_Tutorial-35286.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -118,6 +118,15 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240237</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبدالله أحمد محمد هشام مهنا</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdallah Ahmed Mohammed Hesham</x:t>
   </x:si>
   <x:si>
     <x:t>1240091</x:t>
@@ -383,7 +392,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -683,7 +692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1092,7 +1101,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1252,7 +1261,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1284,7 +1293,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1316,7 +1325,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1348,7 +1357,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1380,7 +1389,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1412,7 +1421,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1444,7 +1453,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6735613079</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1476,7 +1485,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45907.6735613079</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1508,7 +1517,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1540,7 +1549,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1568,9 +1577,11 @@
       <x:c r="C27" s="2" t="s">
         <x:v>80</x:v>
       </x:c>
-      <x:c r="D27" s="2" t="s"/>
+      <x:c r="D27" s="2" t="s">
+        <x:v>81</x:v>
+      </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1593,16 +1604,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1619,6 +1628,38 @@
       <x:c r="R28" s="2" t="s"/>
       <x:c r="S28" s="2" t="s"/>
       <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35286.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,6 +109,15 @@
   </x:si>
   <x:si>
     <x:t>SARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240083</x:t>
@@ -392,7 +401,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -692,7 +701,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -702,7 +711,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1069,7 +1078,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45928.4713758449</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1101,7 +1110,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45924.0106898495</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1357,7 +1366,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1389,7 +1398,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1421,7 +1430,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1453,7 +1462,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1485,7 +1494,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6735613079</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1517,7 +1526,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45907.6735613079</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1549,7 +1558,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1581,7 +1590,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1609,9 +1618,11 @@
       <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s"/>
+      <x:c r="D28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1634,16 +1645,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
+      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.666621412</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1660,6 +1669,38 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.666621412</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35286.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -109,15 +109,6 @@
   </x:si>
   <x:si>
     <x:t>SARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4250252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى احمد مصطفى احمد مصطفى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Ahmed Mustafa Ahmed Mustafa</x:t>
   </x:si>
   <x:si>
     <x:t>1240083</x:t>
@@ -401,7 +392,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -701,7 +692,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -711,7 +702,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="39.950625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="47.240625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1078,7 +1069,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45928.4713758449</x:v>
+        <x:v>45907.6654596065</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6654596065</x:v>
+        <x:v>45924.0106898495</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45924.0106898495</x:v>
+        <x:v>45907.6651444097</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6651444097</x:v>
+        <x:v>45907.6648501968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648501968</x:v>
+        <x:v>45907.6653128125</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6653128125</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45907.665975463</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.665975463</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6649868866</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1366,7 +1357,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6649868866</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1398,7 +1389,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6655427431</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1430,7 +1421,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655427431</x:v>
+        <x:v>45907.6646738426</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1462,7 +1453,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6646738426</x:v>
+        <x:v>45907.6669941782</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1494,7 +1485,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6669941782</x:v>
+        <x:v>45907.6735613079</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1526,7 +1517,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6735613079</x:v>
+        <x:v>45907.6653382755</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1558,7 +1549,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6653382755</x:v>
+        <x:v>45907.6652534722</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1590,7 +1581,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6652534722</x:v>
+        <x:v>45907.6652498495</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1618,11 +1609,9 @@
       <x:c r="C28" s="2" t="s">
         <x:v>83</x:v>
       </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
+      <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
-        <x:v>45907.6652498495</x:v>
+        <x:v>45907.6747354167</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1645,14 +1634,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="C29" s="2" t="s">
+      <x:c r="D29" s="2" t="s">
         <x:v>86</x:v>
       </x:c>
-      <x:c r="D29" s="2" t="s"/>
       <x:c r="E29" s="3">
-        <x:v>45907.6747354167</x:v>
+        <x:v>45907.666621412</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1669,38 +1660,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.666621412</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS102_Tutorial-35286.xlsx
+++ b/downloaded_files/EECS102_Tutorial-35286.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -99,7 +99,10 @@
     <x:t>1240195</x:t>
   </x:si>
   <x:si>
-    <x:t>زياد محمود حشمت سيف النصر</x:t>
+    <x:t>زياد محمود حشمت سيف النصر عبد الرحيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zeyad Mahmoud Hishmat Seifelnasr Abdelraheem</x:t>
   </x:si>
   <x:si>
     <x:t>1240316</x:t>
@@ -1003,7 +1006,9 @@
       <x:c r="C9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="E9" s="3">
         <x:v>45907.6646548264</x:v>
       </x:c>
@@ -1028,13 +1033,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C10" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
         <x:v>45907.6650409375</x:v>
@@ -1060,13 +1065,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
-        <x:v>31</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C11" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
         <x:v>45907.6654596065</x:v>
@@ -1092,13 +1097,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
         <x:v>45924.0106898495</x:v>
@@ -1124,13 +1129,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C13" s="2" t="s">
-        <x:v>38</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
         <x:v>45907.6651444097</x:v>
@@ -1156,13 +1161,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B14" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
         <x:v>45907.6648501968</x:v>
@@ -1188,13 +1193,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s">
-        <x:v>45</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
         <x:v>45907.6653128125</x:v>
@@ -1220,13 +1225,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
         <x:v>45907.666205787</x:v>
@@ -1252,13 +1257,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
         <x:v>45907.665975463</x:v>
@@ -1284,13 +1289,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
         <x:v>45907.6651607639</x:v>
@@ -1316,13 +1321,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>55</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
         <x:v>45907.6649868866</x:v>
@@ -1348,13 +1353,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B20" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
         <x:v>45907.6651833681</x:v>
@@ -1380,13 +1385,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
         <x:v>45907.6655427431</x:v>
@@ -1412,13 +1417,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
         <x:v>45907.6646738426</x:v>
@@ -1444,13 +1449,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
         <x:v>45907.6669941782</x:v>
@@ -1476,13 +1481,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
         <x:v>45907.6735613079</x:v>
@@ -1508,13 +1513,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
         <x:v>45907.6653382755</x:v>
@@ -1540,13 +1545,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
         <x:v>45907.6652534722</x:v>
@@ -1572,13 +1577,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
         <x:v>45907.6652498495</x:v>
@@ -1604,10 +1609,10 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s"/>
       <x:c r="E28" s="3">
@@ -1634,13 +1639,13 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B29" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C29" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s">
-        <x:v>86</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
         <x:v>45907.666621412</x:v>
